--- a/Clock_Tower_Event_Proposal.xlsx
+++ b/Clock_Tower_Event_Proposal.xlsx
@@ -58,7 +58,7 @@
     <t>10m × 4m (40 sqm)</t>
   </si>
   <si>
-    <t>400 / sqm</t>
+    <t>450 / sqm</t>
   </si>
   <si>
     <t>Side LED Screens</t>
@@ -94,7 +94,7 @@
     <t>16m × 4m × 1.1m</t>
   </si>
   <si>
-    <t>180 / sqm</t>
+    <t>200 / sqm</t>
   </si>
   <si>
     <t>Stage Carpet</t>
@@ -211,7 +211,7 @@
     <t>50 units</t>
   </si>
   <si>
-    <t>200 / unit</t>
+    <t>220 / unit</t>
   </si>
   <si>
     <t>Balcony Hospitality Tables</t>
@@ -223,7 +223,7 @@
     <t>20 tables</t>
   </si>
   <si>
-    <t>1,000 / table</t>
+    <t>1,050 / table</t>
   </si>
   <si>
     <t xml:space="preserve">  👥  EVENT STAFFING</t>
@@ -238,7 +238,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>450 / person</t>
+    <t>500 / person</t>
   </si>
   <si>
     <t xml:space="preserve">  🏷  BADGING &amp; ACCESS</t>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="14">
-        <v>16000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,7 +1036,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="19">
-        <v>9600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="14">
-        <v>6000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="14">
-        <v>11520</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="19">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="14">
-        <v>15000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="16" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="14">
-        <v>8000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="19">
-        <v>5000</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>22</v>
       </c>
       <c r="F24" s="14">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>22</v>
       </c>
       <c r="F26" s="14">
-        <v>9500</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="27" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1346,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="19">
-        <v>4000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="14">
-        <v>10000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="30" ht="24" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>70</v>
       </c>
       <c r="F30" s="19">
-        <v>20000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="F32" s="14">
-        <v>4500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,7 +1469,7 @@
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="21">
-        <v>130620</v>
+        <v>146100</v>
       </c>
     </row>
     <row r="37" ht="28" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="23">
-        <v>19593</v>
+        <v>18900</v>
       </c>
     </row>
     <row r="38" ht="3" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,7 +1503,7 @@
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
       <c r="F39" s="25">
-        <v>150213</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
